--- a/individual_results/avey/311.xlsx
+++ b/individual_results/avey/311.xlsx
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -721,7 +721,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -765,7 +765,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -774,7 +774,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5160538258158408</v>
+        <v>0.5234343216411389</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0.2809528269319213</v>
       </c>
       <c r="O6" t="n">
-        <v>0.427427444082612</v>
+        <v>0.5766666455144387</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="O11" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
